--- a/public/template/customer-asset-management.xlsx
+++ b/public/template/customer-asset-management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/pmt-erp/public/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A27264-A9A3-0F40-A377-F28EC9642E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58274192-BF66-754B-8A84-39BBD7BFCA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{63FFB639-7BF2-7248-85D1-11CD33D238C3}"/>
+    <workbookView xWindow="2400" yWindow="820" windowWidth="33600" windowHeight="19280" xr2:uid="{63FFB639-7BF2-7248-85D1-11CD33D238C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -33,15 +33,9 @@
     <t>TANGGAL SUBMISSION</t>
   </si>
   <si>
-    <t>NAMA</t>
-  </si>
-  <si>
     <t>NIK</t>
   </si>
   <si>
-    <t>Tower Index</t>
-  </si>
-  <si>
     <t>SITE ID</t>
   </si>
   <si>
@@ -54,49 +48,13 @@
     <t>REGION</t>
   </si>
   <si>
-    <t>REGION1</t>
-  </si>
-  <si>
-    <t>APAKAH DI SITE INI ADA BATTERY</t>
-  </si>
-  <si>
-    <t>BERAPA UNIT</t>
-  </si>
-  <si>
-    <t>MEREK BATERAI</t>
-  </si>
-  <si>
-    <t>KAPASITAS BATERAI (AH)</t>
-  </si>
-  <si>
-    <t>KAPAN BATERAI DILAPORKAN HILANG?</t>
-  </si>
-  <si>
-    <t>APAKAH BATERAI PERNAH DI RELOKASI?</t>
-  </si>
-  <si>
-    <t>DI RELOKASI KE SITE ID</t>
-  </si>
-  <si>
-    <t>DI RELOKASI KE SITE NAME</t>
-  </si>
-  <si>
-    <t>APAKAH CABINET BATERAI DIPASANG GEMBOK?</t>
-  </si>
-  <si>
-    <t>APAKAH  DIPASANG BATERAI CAGE?</t>
-  </si>
-  <si>
-    <t>APAKAH DIPASANG CABINET BELTING?</t>
-  </si>
-  <si>
-    <t>CATATAN</t>
-  </si>
-  <si>
-    <t>CHECK</t>
-  </si>
-  <si>
-    <t>SMARTSHEET DONE SUBMIT</t>
+    <t>SUB REGION</t>
+  </si>
+  <si>
+    <t>COORDINATOR</t>
+  </si>
+  <si>
+    <t>TOWER INDEX</t>
   </si>
 </sst>
 </file>
@@ -468,25 +426,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A843999-FD07-1A4E-9258-DC8FFB61E9FE}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,13 +456,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -512,53 +471,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
